--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222713.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223913.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 10:27:46</t>
+    <t>Informação extraída do SIGBM: 13/12/2022 - 11:39:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223913.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220614.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 13/12/2022 - 11:39:56</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 12:06:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220614.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222914.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 12:06:28</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 12:29:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222914.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224214.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 12:29:57</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 12:42:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224214.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225114.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 12:42:04</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 12:51:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225114.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220014.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 12:51:03</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 01:00:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220014.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222214.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 01:00:06</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 01:22:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222214.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224014.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 01:22:40</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 01:40:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224014.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225014.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 01:40:19</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 01:50:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225014.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225814.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 01:50:05</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 01:58:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225814.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221514.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 01:58:34</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 02:15:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221514.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223014.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 02:15:05</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 02:30:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223014.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223814.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 02:30:30</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 02:38:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223814.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224814.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 02:38:57</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 02:48:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224814.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225614.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 02:48:14</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 02:56:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225614.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221414.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 02:56:23</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 03:14:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221414.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223614.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 03:14:59</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 03:36:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223614.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224814.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 03:36:41</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 03:48:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224814.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225714.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 03:48:32</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 03:57:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225714.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221214.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 03:57:02</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 04:12:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221214.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222714.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 04:12:27</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 04:27:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222714.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223614.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 04:27:48</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 04:36:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223614.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224614.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 04:36:55</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 04:46:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224614.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225414.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 04:46:00</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 04:54:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225414.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220314.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 04:54:22</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 05:03:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220314.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223014.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 05:03:27</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 05:30:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223014.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224414.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 05:30:54</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 05:44:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224414.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225214.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 05:44:33</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 05:52:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225214.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220114.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 05:52:48</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 06:01:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220114.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222114.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 06:01:18</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 06:21:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222114.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223214.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 06:21:23</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 06:32:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223214.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224114.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 06:32:21</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 06:41:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224114.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225114.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 06:41:54</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 06:51:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225114.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220014.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 06:51:16</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 07:00:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220014.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221814.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 07:00:00</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 07:18:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221814.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223414.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 07:18:55</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 07:34:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223414.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224514.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 07:34:58</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 07:45:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224514.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225314.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 07:45:37</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 07:53:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225314.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220214.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 07:53:50</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 08:02:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220214.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222014.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 08:02:40</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 08:20:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222014.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222914.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 08:20:40</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 08:29:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222914.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223914.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 08:29:13</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 08:39:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223914.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224714.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 08:39:01</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 08:47:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224714.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225614.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 08:47:38</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 08:56:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225614.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221914.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 08:56:29</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 09:19:35</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -8747,7 +8747,7 @@
     <t>-43°50'22.800"</t>
   </si>
   <si>
-    <t>1.282.000,00</t>
+    <t>1.321.952,00</t>
   </si>
   <si>
     <t>Fortuna</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221914.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225414.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 09:19:35</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 09:54:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225414.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221714.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 09:54:02</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 10:17:10</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -4646,7 +4646,7 @@
     <t>-50°04'12.554"</t>
   </si>
   <si>
-    <t>130.367.943,09</t>
+    <t>130.961.960,86</t>
   </si>
   <si>
     <t>BARRAGEM DO VIGIA</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221714.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223514.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 10:17:10</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 10:35:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223514.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224414.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 10:35:57</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 10:44:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224414.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225314.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 10:44:47</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 10:53:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225314.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220214.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 10:53:55</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 11:02:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220214.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222114.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 11:02:18</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 11:21:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222114.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223214.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 11:21:49</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 11:32:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223214.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224214.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 11:32:58</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 11:42:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224214.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225014.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 11:42:09</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 11:50:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225014.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220014.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 11:50:53</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 12:00:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220014.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222014.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 12:00:12</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 12:20:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222014.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223414.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 12:20:05</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 12:34:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223414.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224414.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 12:34:25</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 12:44:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224414.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225314.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 12:44:19</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 12:53:33</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -12161,7 +12161,7 @@
     <t>-63°05'01.035"</t>
   </si>
   <si>
-    <t>1.554.830,51</t>
+    <t>1.582.231,92</t>
   </si>
   <si>
     <t>Taboquinha 04</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225314.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220214.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 12:53:33</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 01:02:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220214.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223214.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 01:02:57</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 01:32:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225214.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220114.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 01:52:18</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 02:01:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220114.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221914.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 02:01:18</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 02:19:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221914.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223214.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 02:19:45</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 02:32:48</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -12185,7 +12185,7 @@
     <t>-63°05'11.000"</t>
   </si>
   <si>
-    <t>1.535.971,00</t>
+    <t>1.540.453,00</t>
   </si>
   <si>
     <t>Tadeu</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223214.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224114.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 02:32:48</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 02:41:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224114.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225014.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 02:41:48</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 02:50:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225014.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225914.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 02:50:22</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 02:59:49</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -4406,7 +4406,7 @@
     <t>ALTO HORIZONTE</t>
   </si>
   <si>
-    <t>231.216.861,00</t>
+    <t>232.919.869,00</t>
   </si>
   <si>
     <t>BARRAGEM DE REJEITOS PGDM</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225914.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222114.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 02:59:49</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 03:21:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222114.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223614.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 03:21:26</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 03:36:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223614.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224714.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 03:36:40</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 03:47:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224714.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225614.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 03:47:19</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 03:56:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225614.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220914.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 03:56:04</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 04:09:48</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -4274,7 +4274,7 @@
     <t>-40°41'29.300"</t>
   </si>
   <si>
-    <t>1.317.531,87</t>
+    <t>1.362.874,24</t>
   </si>
   <si>
     <t xml:space="preserve">BARRAGEM DE REJEITOS </t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220914.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222214.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 04:09:48</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 04:22:26</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -44152,7 +44152,7 @@
         <v>48</v>
       </c>
       <c r="R510" s="0" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="S510" s="0" t="s">
         <v>34</v>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222214.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223114.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 04:22:26</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 04:31:07</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -44140,13 +44140,13 @@
         <v>44</v>
       </c>
       <c r="N510" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O510" s="0" t="s">
         <v>45</v>
       </c>
       <c r="P510" s="0" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="Q510" s="0" t="s">
         <v>48</v>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223114.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224014.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 04:31:07</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 04:40:09</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -44152,7 +44152,7 @@
         <v>48</v>
       </c>
       <c r="R510" s="0" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="S510" s="0" t="s">
         <v>34</v>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224014.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224814.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 04:40:09</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 04:48:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224814.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225714.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 04:48:53</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 04:57:50</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -32025,7 +32025,7 @@
         <v>33</v>
       </c>
       <c r="S313" s="0" t="s">
-        <v>148</v>
+        <v>617</v>
       </c>
       <c r="T313" s="0" t="s">
         <v>50</v>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225714.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221414.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 04:57:50</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 05:14:58</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -9935,7 +9935,7 @@
     <t>-43°38'56.601"</t>
   </si>
   <si>
-    <t>305.396,00</t>
+    <t>313.332,00</t>
   </si>
   <si>
     <t>Monjolo</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221414.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223014.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 05:14:58</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 05:30:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223014.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224114.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 05:30:31</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 05:41:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224114.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224914.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 05:41:08</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 05:49:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224914.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225814.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 05:49:47</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 05:58:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225814.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221414.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 05:58:37</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 06:14:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221414.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222814.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 06:14:40</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 06:28:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222814.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223814.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 06:28:08</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 06:38:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223814.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224614.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 06:38:01</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 06:46:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224614.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225514.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 06:46:34</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 06:55:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225514.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221014.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 06:55:35</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 07:10:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221014.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222714.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 07:10:09</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 07:27:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222714.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223814.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 07:27:42</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 07:38:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223814.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224714.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 07:38:21</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 07:47:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224714.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225614.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 07:47:41</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 07:56:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225614.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221014.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 07:56:08</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 08:10:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221014.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222714.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 08:10:21</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 08:27:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222714.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223714.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 08:27:52</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 08:37:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223714.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224714.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 08:37:52</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 08:47:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-14.xlsx
+++ b/sigbm_download_2022-12-14.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224714.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225514.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="4255">
   <si>
-    <t>Informação extraída do SIGBM: 14/12/2022 - 08:47:13</t>
+    <t>Informação extraída do SIGBM: 14/12/2022 - 08:55:57</t>
   </si>
   <si>
     <t>ID Barragem</t>
